--- a/docs/leadas_06/szk_3 (1).xlsx
+++ b/docs/leadas_06/szk_3 (1).xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ADMIN\Documents\GitHub\Space-Miner\docs\leadas_06\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Space-Miner\docs\leadas_06\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{7E109216-3A07-4814-AAFD-CE01F786D3BE}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8B85F99C-8C18-40AF-B368-EBB271178A12}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="30" yWindow="16080" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Munka1" sheetId="1" r:id="rId1"/>
@@ -147,9 +147,6 @@
     <t>x</t>
   </si>
   <si>
-    <t xml:space="preserve">A programban nem volt jelezve, viszont a dokumentumban pontosan jelezve volt. Ez az eldöntednő kérdésekre adandó válaszadásnál merült fel problémaként. </t>
-  </si>
-  <si>
     <t>Nincs.</t>
   </si>
   <si>
@@ -157,6 +154,9 @@
   </si>
   <si>
     <t>Alapvetően minden helyesen működik és csak apróbb eltéréseket találtunk a dokumentációhoz képest.</t>
+  </si>
+  <si>
+    <t>Az eldöntendő kérdésekre adható válaszlehetőségek a programban nem voltak jelezve.</t>
   </si>
 </sst>
 </file>
@@ -446,6 +446,73 @@
       <alignment vertical="top" wrapText="1"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+      <protection locked="0"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="7" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
       <protection locked="0"/>
@@ -464,76 +531,9 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="4" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-      <protection locked="0"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normál" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
@@ -549,7 +549,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office-téma">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -871,8 +871,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A52" workbookViewId="0">
-      <selection activeCell="B62" sqref="B62:D62"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="B39" sqref="B39:D39"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1272,18 +1272,18 @@
     </row>
     <row r="2" spans="1:5" ht="23.25" x14ac:dyDescent="0.35">
       <c r="A2" s="4"/>
-      <c r="B2" s="44" t="s">
+      <c r="B2" s="23" t="s">
         <v>36</v>
       </c>
-      <c r="C2" s="44"/>
-      <c r="D2" s="44"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
       <c r="E2" s="5"/>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" s="4"/>
-      <c r="B3" s="45"/>
-      <c r="C3" s="45"/>
-      <c r="D3" s="45"/>
+      <c r="B3" s="24"/>
+      <c r="C3" s="24"/>
+      <c r="D3" s="24"/>
       <c r="E3" s="5"/>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
@@ -1295,11 +1295,11 @@
     </row>
     <row r="5" spans="1:5" ht="18" x14ac:dyDescent="0.25">
       <c r="A5" s="4"/>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="25" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="46"/>
-      <c r="D5" s="46"/>
+      <c r="C5" s="25"/>
+      <c r="D5" s="25"/>
       <c r="E5" s="5"/>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
@@ -1330,10 +1330,10 @@
       <c r="B9" s="10" t="s">
         <v>2</v>
       </c>
-      <c r="C9" s="40" t="s">
+      <c r="C9" s="26" t="s">
         <v>38</v>
       </c>
-      <c r="D9" s="41"/>
+      <c r="D9" s="27"/>
       <c r="E9" s="5"/>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.25">
@@ -1341,10 +1341,10 @@
       <c r="B10" s="10" t="s">
         <v>3</v>
       </c>
-      <c r="C10" s="40" t="s">
+      <c r="C10" s="26" t="s">
         <v>39</v>
       </c>
-      <c r="D10" s="41"/>
+      <c r="D10" s="27"/>
       <c r="E10" s="5"/>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.25">
@@ -1356,11 +1356,11 @@
     </row>
     <row r="12" spans="1:5" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4"/>
-      <c r="B12" s="47" t="s">
+      <c r="B12" s="28" t="s">
         <v>4</v>
       </c>
-      <c r="C12" s="47"/>
-      <c r="D12" s="47"/>
+      <c r="C12" s="28"/>
+      <c r="D12" s="28"/>
       <c r="E12" s="5"/>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
@@ -1375,10 +1375,10 @@
       <c r="B14" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="26">
         <v>16</v>
       </c>
-      <c r="D14" s="41"/>
+      <c r="D14" s="27"/>
       <c r="E14" s="5"/>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -1386,10 +1386,10 @@
       <c r="B15" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="26">
         <v>3</v>
       </c>
-      <c r="D15" s="41"/>
+      <c r="D15" s="27"/>
       <c r="E15" s="5"/>
     </row>
     <row r="16" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1397,10 +1397,10 @@
       <c r="B16" s="11" t="s">
         <v>7</v>
       </c>
-      <c r="C16" s="42" t="s">
-        <v>43</v>
-      </c>
-      <c r="D16" s="43"/>
+      <c r="C16" s="29" t="s">
+        <v>42</v>
+      </c>
+      <c r="D16" s="30"/>
       <c r="E16" s="5"/>
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.25">
@@ -1412,19 +1412,19 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" s="4"/>
-      <c r="B18" s="36" t="s">
+      <c r="B18" s="31" t="s">
         <v>8</v>
       </c>
-      <c r="C18" s="36"/>
-      <c r="D18" s="36"/>
+      <c r="C18" s="31"/>
+      <c r="D18" s="31"/>
       <c r="E18" s="5"/>
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A19" s="4"/>
-      <c r="B19" s="28" t="s">
+      <c r="B19" s="32" t="s">
         <v>9</v>
       </c>
-      <c r="C19" s="29"/>
+      <c r="C19" s="33"/>
       <c r="D19" s="12" t="s">
         <v>40</v>
       </c>
@@ -1432,44 +1432,44 @@
     </row>
     <row r="20" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="4"/>
-      <c r="B20" s="27" t="s">
+      <c r="B20" s="22" t="s">
         <v>10</v>
       </c>
-      <c r="C20" s="27"/>
+      <c r="C20" s="22"/>
       <c r="D20" s="12"/>
       <c r="E20" s="5"/>
     </row>
     <row r="21" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="4"/>
-      <c r="B21" s="27" t="s">
+      <c r="B21" s="22" t="s">
         <v>11</v>
       </c>
-      <c r="C21" s="27"/>
+      <c r="C21" s="22"/>
       <c r="D21" s="12"/>
       <c r="E21" s="5"/>
     </row>
     <row r="22" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="4"/>
-      <c r="B22" s="37"/>
-      <c r="C22" s="38"/>
-      <c r="D22" s="39"/>
+      <c r="B22" s="34"/>
+      <c r="C22" s="35"/>
+      <c r="D22" s="36"/>
       <c r="E22" s="5"/>
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" s="4"/>
-      <c r="B23" s="28" t="s">
+      <c r="B23" s="32" t="s">
         <v>12</v>
       </c>
-      <c r="C23" s="29"/>
+      <c r="C23" s="33"/>
       <c r="D23" s="12"/>
       <c r="E23" s="5"/>
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A24" s="4"/>
-      <c r="B24" s="27" t="s">
+      <c r="B24" s="22" t="s">
         <v>13</v>
       </c>
-      <c r="C24" s="27"/>
+      <c r="C24" s="22"/>
       <c r="D24" s="12" t="s">
         <v>40</v>
       </c>
@@ -1477,36 +1477,36 @@
     </row>
     <row r="25" spans="1:5" ht="12.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="4"/>
-      <c r="B25" s="28" t="s">
+      <c r="B25" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="C25" s="29"/>
+      <c r="C25" s="33"/>
       <c r="D25" s="12"/>
       <c r="E25" s="5"/>
     </row>
     <row r="26" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="4"/>
-      <c r="B26" s="30"/>
-      <c r="C26" s="31"/>
-      <c r="D26" s="32"/>
+      <c r="B26" s="37"/>
+      <c r="C26" s="38"/>
+      <c r="D26" s="39"/>
       <c r="E26" s="5"/>
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A27" s="4"/>
-      <c r="B27" s="33" t="s">
+      <c r="B27" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C27" s="34"/>
-      <c r="D27" s="35"/>
+      <c r="C27" s="41"/>
+      <c r="D27" s="42"/>
       <c r="E27" s="5"/>
     </row>
     <row r="28" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="4"/>
-      <c r="B28" s="22" t="s">
-        <v>41</v>
-      </c>
-      <c r="C28" s="23"/>
-      <c r="D28" s="24"/>
+      <c r="B28" s="43" t="s">
+        <v>44</v>
+      </c>
+      <c r="C28" s="44"/>
+      <c r="D28" s="45"/>
       <c r="E28" s="5"/>
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.25">
@@ -1518,46 +1518,46 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A30" s="4"/>
-      <c r="B30" s="36" t="s">
+      <c r="B30" s="31" t="s">
         <v>16</v>
       </c>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
       <c r="E30" s="5"/>
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A31" s="4"/>
-      <c r="B31" s="28" t="s">
+      <c r="B31" s="32" t="s">
         <v>17</v>
       </c>
-      <c r="C31" s="29"/>
+      <c r="C31" s="33"/>
       <c r="D31" s="12"/>
       <c r="E31" s="5"/>
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A32" s="4"/>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="22" t="s">
         <v>18</v>
       </c>
-      <c r="C32" s="27"/>
+      <c r="C32" s="22"/>
       <c r="D32" s="12"/>
       <c r="E32" s="5"/>
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A33" s="4"/>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="22" t="s">
         <v>19</v>
       </c>
-      <c r="C33" s="27"/>
+      <c r="C33" s="22"/>
       <c r="D33" s="12"/>
       <c r="E33" s="5"/>
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A34" s="4"/>
-      <c r="B34" s="27" t="s">
+      <c r="B34" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="C34" s="27"/>
+      <c r="C34" s="22"/>
       <c r="D34" s="12" t="s">
         <v>40</v>
       </c>
@@ -1565,17 +1565,17 @@
     </row>
     <row r="35" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="4"/>
-      <c r="B35" s="37"/>
-      <c r="C35" s="38"/>
-      <c r="D35" s="39"/>
+      <c r="B35" s="34"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="36"/>
       <c r="E35" s="5"/>
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A36" s="4"/>
-      <c r="B36" s="28" t="s">
+      <c r="B36" s="32" t="s">
         <v>21</v>
       </c>
-      <c r="C36" s="29"/>
+      <c r="C36" s="33"/>
       <c r="D36" s="12" t="s">
         <v>40</v>
       </c>
@@ -1583,27 +1583,27 @@
     </row>
     <row r="37" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="4"/>
-      <c r="B37" s="30"/>
-      <c r="C37" s="31"/>
-      <c r="D37" s="32"/>
+      <c r="B37" s="37"/>
+      <c r="C37" s="38"/>
+      <c r="D37" s="39"/>
       <c r="E37" s="5"/>
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A38" s="4"/>
-      <c r="B38" s="33" t="s">
+      <c r="B38" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C38" s="34"/>
-      <c r="D38" s="35"/>
+      <c r="C38" s="41"/>
+      <c r="D38" s="42"/>
       <c r="E38" s="5"/>
     </row>
     <row r="39" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="4"/>
-      <c r="B39" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C39" s="23"/>
-      <c r="D39" s="24"/>
+      <c r="B39" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C39" s="44"/>
+      <c r="D39" s="45"/>
       <c r="E39" s="5"/>
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.25">
@@ -1615,19 +1615,19 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A41" s="4"/>
-      <c r="B41" s="36" t="s">
+      <c r="B41" s="31" t="s">
         <v>22</v>
       </c>
-      <c r="C41" s="36"/>
-      <c r="D41" s="36"/>
+      <c r="C41" s="31"/>
+      <c r="D41" s="31"/>
       <c r="E41" s="5"/>
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A42" s="4"/>
-      <c r="B42" s="28" t="s">
+      <c r="B42" s="32" t="s">
         <v>23</v>
       </c>
-      <c r="C42" s="29"/>
+      <c r="C42" s="33"/>
       <c r="D42" s="12" t="s">
         <v>40</v>
       </c>
@@ -1635,35 +1635,35 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A43" s="4"/>
-      <c r="B43" s="27" t="s">
+      <c r="B43" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="C43" s="27"/>
+      <c r="C43" s="22"/>
       <c r="D43" s="12"/>
       <c r="E43" s="5"/>
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A44" s="4"/>
-      <c r="B44" s="27" t="s">
+      <c r="B44" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="C44" s="27"/>
+      <c r="C44" s="22"/>
       <c r="D44" s="12"/>
       <c r="E44" s="5"/>
     </row>
     <row r="45" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="4"/>
-      <c r="B45" s="37"/>
-      <c r="C45" s="38"/>
-      <c r="D45" s="39"/>
+      <c r="B45" s="34"/>
+      <c r="C45" s="35"/>
+      <c r="D45" s="36"/>
       <c r="E45" s="5"/>
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A46" s="4"/>
-      <c r="B46" s="28" t="s">
+      <c r="B46" s="32" t="s">
         <v>26</v>
       </c>
-      <c r="C46" s="29"/>
+      <c r="C46" s="33"/>
       <c r="D46" s="12" t="s">
         <v>40</v>
       </c>
@@ -1671,45 +1671,45 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A47" s="4"/>
-      <c r="B47" s="27" t="s">
+      <c r="B47" s="22" t="s">
         <v>27</v>
       </c>
-      <c r="C47" s="27"/>
+      <c r="C47" s="22"/>
       <c r="D47" s="12"/>
       <c r="E47" s="5"/>
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A48" s="4"/>
-      <c r="B48" s="27" t="s">
+      <c r="B48" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="C48" s="27"/>
+      <c r="C48" s="22"/>
       <c r="D48" s="12"/>
       <c r="E48" s="5"/>
     </row>
     <row r="49" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A49" s="4"/>
-      <c r="B49" s="30"/>
-      <c r="C49" s="31"/>
-      <c r="D49" s="32"/>
+      <c r="B49" s="37"/>
+      <c r="C49" s="38"/>
+      <c r="D49" s="39"/>
       <c r="E49" s="5"/>
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A50" s="4"/>
-      <c r="B50" s="33" t="s">
+      <c r="B50" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="C50" s="34"/>
-      <c r="D50" s="35"/>
+      <c r="C50" s="41"/>
+      <c r="D50" s="42"/>
       <c r="E50" s="5"/>
     </row>
     <row r="51" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="4"/>
-      <c r="B51" s="22" t="s">
-        <v>42</v>
-      </c>
-      <c r="C51" s="23"/>
-      <c r="D51" s="24"/>
+      <c r="B51" s="43" t="s">
+        <v>41</v>
+      </c>
+      <c r="C51" s="44"/>
+      <c r="D51" s="45"/>
       <c r="E51" s="5"/>
     </row>
     <row r="52" spans="1:5" x14ac:dyDescent="0.25">
@@ -1721,28 +1721,28 @@
     </row>
     <row r="53" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A53" s="4"/>
-      <c r="B53" s="36" t="s">
+      <c r="B53" s="31" t="s">
         <v>29</v>
       </c>
-      <c r="C53" s="36"/>
-      <c r="D53" s="36"/>
+      <c r="C53" s="31"/>
+      <c r="D53" s="31"/>
       <c r="E53" s="5"/>
     </row>
     <row r="54" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A54" s="4"/>
-      <c r="B54" s="28" t="s">
+      <c r="B54" s="32" t="s">
         <v>30</v>
       </c>
-      <c r="C54" s="29"/>
+      <c r="C54" s="33"/>
       <c r="D54" s="12"/>
       <c r="E54" s="5"/>
     </row>
     <row r="55" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A55" s="4"/>
-      <c r="B55" s="27" t="s">
+      <c r="B55" s="22" t="s">
         <v>31</v>
       </c>
-      <c r="C55" s="27"/>
+      <c r="C55" s="22"/>
       <c r="D55" s="12" t="s">
         <v>40</v>
       </c>
@@ -1750,35 +1750,35 @@
     </row>
     <row r="56" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A56" s="4"/>
-      <c r="B56" s="27" t="s">
+      <c r="B56" s="22" t="s">
         <v>32</v>
       </c>
-      <c r="C56" s="27"/>
+      <c r="C56" s="22"/>
       <c r="D56" s="12"/>
       <c r="E56" s="5"/>
     </row>
     <row r="57" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A57" s="4"/>
-      <c r="B57" s="28" t="s">
+      <c r="B57" s="32" t="s">
         <v>33</v>
       </c>
-      <c r="C57" s="29"/>
+      <c r="C57" s="33"/>
       <c r="D57" s="12"/>
       <c r="E57" s="5"/>
     </row>
     <row r="58" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A58" s="4"/>
-      <c r="B58" s="30"/>
-      <c r="C58" s="31"/>
-      <c r="D58" s="32"/>
+      <c r="B58" s="37"/>
+      <c r="C58" s="38"/>
+      <c r="D58" s="39"/>
       <c r="E58" s="5"/>
     </row>
     <row r="59" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A59" s="4"/>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="22" t="s">
         <v>34</v>
       </c>
-      <c r="C59" s="27"/>
+      <c r="C59" s="22"/>
       <c r="D59" s="12">
         <v>9</v>
       </c>
@@ -1786,27 +1786,27 @@
     </row>
     <row r="60" spans="1:5" ht="7.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A60" s="4"/>
-      <c r="B60" s="30"/>
-      <c r="C60" s="31"/>
-      <c r="D60" s="32"/>
+      <c r="B60" s="37"/>
+      <c r="C60" s="38"/>
+      <c r="D60" s="39"/>
       <c r="E60" s="5"/>
     </row>
     <row r="61" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A61" s="4"/>
-      <c r="B61" s="33" t="s">
+      <c r="B61" s="40" t="s">
         <v>35</v>
       </c>
-      <c r="C61" s="34"/>
-      <c r="D61" s="35"/>
+      <c r="C61" s="41"/>
+      <c r="D61" s="42"/>
       <c r="E61" s="5"/>
     </row>
     <row r="62" spans="1:5" ht="68.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A62" s="4"/>
-      <c r="B62" s="22" t="s">
-        <v>44</v>
-      </c>
-      <c r="C62" s="23"/>
-      <c r="D62" s="24"/>
+      <c r="B62" s="43" t="s">
+        <v>43</v>
+      </c>
+      <c r="C62" s="44"/>
+      <c r="D62" s="45"/>
       <c r="E62" s="5"/>
     </row>
     <row r="63" spans="1:5" x14ac:dyDescent="0.25">
@@ -1825,10 +1825,10 @@
     </row>
     <row r="65" spans="1:5" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A65" s="16"/>
-      <c r="B65" s="25" t="s">
+      <c r="B65" s="46" t="s">
         <v>37</v>
       </c>
-      <c r="C65" s="26"/>
+      <c r="C65" s="47"/>
       <c r="D65" s="16"/>
       <c r="E65" s="15"/>
     </row>
@@ -1927,6 +1927,46 @@
   </sheetData>
   <sheetProtection password="8E55" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="52">
+    <mergeCell ref="B62:D62"/>
+    <mergeCell ref="B65:C65"/>
+    <mergeCell ref="B56:C56"/>
+    <mergeCell ref="B57:C57"/>
+    <mergeCell ref="B58:D58"/>
+    <mergeCell ref="B59:C59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="B61:D61"/>
+    <mergeCell ref="B55:C55"/>
+    <mergeCell ref="B43:C43"/>
+    <mergeCell ref="B44:C44"/>
+    <mergeCell ref="B45:D45"/>
+    <mergeCell ref="B46:C46"/>
+    <mergeCell ref="B47:C47"/>
+    <mergeCell ref="B48:C48"/>
+    <mergeCell ref="B49:D49"/>
+    <mergeCell ref="B50:D50"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="B53:D53"/>
+    <mergeCell ref="B54:C54"/>
+    <mergeCell ref="B37:D37"/>
+    <mergeCell ref="B38:D38"/>
+    <mergeCell ref="B39:D39"/>
+    <mergeCell ref="B41:D41"/>
+    <mergeCell ref="B42:C42"/>
+    <mergeCell ref="B32:C32"/>
+    <mergeCell ref="B33:C33"/>
+    <mergeCell ref="B34:C34"/>
+    <mergeCell ref="B35:D35"/>
+    <mergeCell ref="B36:C36"/>
+    <mergeCell ref="B26:D26"/>
+    <mergeCell ref="B27:D27"/>
+    <mergeCell ref="B28:D28"/>
+    <mergeCell ref="B30:D30"/>
+    <mergeCell ref="B31:C31"/>
+    <mergeCell ref="B21:C21"/>
+    <mergeCell ref="B22:D22"/>
+    <mergeCell ref="B23:C23"/>
+    <mergeCell ref="B24:C24"/>
+    <mergeCell ref="B25:C25"/>
     <mergeCell ref="B20:C20"/>
     <mergeCell ref="B2:D2"/>
     <mergeCell ref="B3:D3"/>
@@ -1939,46 +1979,6 @@
     <mergeCell ref="C16:D16"/>
     <mergeCell ref="B18:D18"/>
     <mergeCell ref="B19:C19"/>
-    <mergeCell ref="B21:C21"/>
-    <mergeCell ref="B22:D22"/>
-    <mergeCell ref="B23:C23"/>
-    <mergeCell ref="B24:C24"/>
-    <mergeCell ref="B25:C25"/>
-    <mergeCell ref="B26:D26"/>
-    <mergeCell ref="B27:D27"/>
-    <mergeCell ref="B28:D28"/>
-    <mergeCell ref="B30:D30"/>
-    <mergeCell ref="B31:C31"/>
-    <mergeCell ref="B32:C32"/>
-    <mergeCell ref="B33:C33"/>
-    <mergeCell ref="B34:C34"/>
-    <mergeCell ref="B35:D35"/>
-    <mergeCell ref="B36:C36"/>
-    <mergeCell ref="B37:D37"/>
-    <mergeCell ref="B38:D38"/>
-    <mergeCell ref="B39:D39"/>
-    <mergeCell ref="B41:D41"/>
-    <mergeCell ref="B42:C42"/>
-    <mergeCell ref="B55:C55"/>
-    <mergeCell ref="B43:C43"/>
-    <mergeCell ref="B44:C44"/>
-    <mergeCell ref="B45:D45"/>
-    <mergeCell ref="B46:C46"/>
-    <mergeCell ref="B47:C47"/>
-    <mergeCell ref="B48:C48"/>
-    <mergeCell ref="B49:D49"/>
-    <mergeCell ref="B50:D50"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="B53:D53"/>
-    <mergeCell ref="B54:C54"/>
-    <mergeCell ref="B62:D62"/>
-    <mergeCell ref="B65:C65"/>
-    <mergeCell ref="B56:C56"/>
-    <mergeCell ref="B57:C57"/>
-    <mergeCell ref="B58:D58"/>
-    <mergeCell ref="B59:C59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="B61:D61"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
